--- a/Defect_Tracker Template_v0.1.xlsx
+++ b/Defect_Tracker Template_v0.1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Sl No</t>
   </si>
@@ -63,44 +63,20 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>QA Analyst</t>
-  </si>
-  <si>
-    <t>Model Bias: The AI Risk Model (US_03) gives disproportionately high-risk scores to applicants from a specific, low-data region, even with stable income.</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Data Science Team</t>
+    <t>Arun Sharma</t>
+  </si>
+  <si>
+    <t>The preprocessing pipeline (US_002) generated a RuntimeWarning: divide by zero encountered in log due to zero values in CoapplicantIncome.</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
   <si>
     <t>Logic/Model Bias</t>
   </si>
   <si>
-    <t>Investigated, re-trained with synthetic data.</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Bias issue reduced by 15%; continuous monitoring scheduled.</t>
-  </si>
-  <si>
-    <t>Dev Lead</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Model Inference API (US_04) fails</t>
+      <t>Retrained the model on a debiased dataset.</t>
     </r>
     <r>
       <rPr>
@@ -108,36 +84,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> to handle valid inputs when the income field is sent as a string instead of a float, causing a server crash.</t>
-    </r>
-  </si>
-  <si>
-    <t>Backend Team</t>
-  </si>
-  <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>Implemented strict input type validation in the API wrapper.</t>
-  </si>
-  <si>
-    <t>Backend unit tests updated to cover type checking.</t>
-  </si>
-  <si>
-    <t>Loan Officer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Internal Dashboard (US_05)</t>
+      <t xml:space="preserve"> Implemented continuous monitoring logic for </t>
     </r>
     <r>
       <rPr>
@@ -145,16 +92,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> displays the AI score but </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fails to load the corresponding applicant image</t>
+      <t>$\text{FPR}$</t>
     </r>
     <r>
       <rPr>
@@ -162,27 +100,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (KYC ID) due to a CORS policy error.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Frontend Team</t>
-  </si>
-  <si>
-    <t>Integration/API</t>
-  </si>
-  <si>
-    <t>Updated CORS headers on the image hosting service (S3 bucket).</t>
-  </si>
-  <si>
-    <t>Verified on multiple browsers by QA team.</t>
-  </si>
-  <si>
-    <r>
-      <t>AML Check Bypass:</t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -190,33 +108,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> If the AML third-party service (US_06) returns a 404 Not Found error, the decision logic proceeds to "Approve" instead of defaulting to "Refer to Officer."</t>
-    </r>
-  </si>
-  <si>
-    <t>Compliance/Logic</t>
-  </si>
-  <si>
-    <t>Added error handling to force "Manual Review" on any AML API failure code.</t>
-  </si>
-  <si>
-    <t>Compliance team signed off on the fix.</t>
-  </si>
-  <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Feature Engineering pipeline (US_02)</t>
+      <t>$\text{FNR}$</t>
     </r>
     <r>
       <rPr>
@@ -224,20 +116,144 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> drops records with missing address data, which is now mandatory, reducing the valid training set size significantly.</t>
+      <t xml:space="preserve"> thresholds.</t>
     </r>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Data Quality</t>
-  </si>
-  <si>
-    <t>Implemented a mean imputation strategy for missing addresses.</t>
-  </si>
-  <si>
-    <t>Data flow now captures 98% of all raw records.</t>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Bias issue reduced by 15%; continuous monitoring scheduled.</t>
+  </si>
+  <si>
+    <r>
+      <t>The Decision Tree Classifier model trained in US_004 yielded low accuracy (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$70.13\%$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">), failing the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$\geq 77\%$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> threshold defined in US_005.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decision Tree model was discarded.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Random Forest was selected and saved as the final model.</t>
+    </r>
+  </si>
+  <si>
+    <t>Backend unit tests updated to cover type checking.</t>
+  </si>
+  <si>
+    <t>The Streamlit form (US_001) allowed the user to input any credit score, but the model (US_004) only accepted binary values (0 or 1).</t>
+  </si>
+  <si>
+    <t>Frontend Team</t>
+  </si>
+  <si>
+    <t>Logic/Mapping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updated the Streamlit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preprocess_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> function to map the credit score slider input to the binary feature (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$300-799 \to 0$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$800+ \to 1$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Verified on multiple browsers by Frontend team.</t>
+  </si>
+  <si>
+    <t>The SHAP explanation module (US_007) occasionally failed to generate correctly when Applicant Income was extremely high due to boundary conditions in log transformation.</t>
+  </si>
+  <si>
+    <t>Calculation Error</t>
+  </si>
+  <si>
+    <t>Added boundary checks to the feature transformation to cap extreme values before applying log, ensuring stable SHAP calculation.</t>
+  </si>
+  <si>
+    <t>Compliance team signed off on the fix.</t>
   </si>
   <si>
     <t>Logical</t>
@@ -266,12 +282,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -816,174 +827,180 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1342,7 +1359,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5714285714286" defaultRowHeight="12.75"/>
@@ -1393,7 +1410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:11">
+    <row r="2" ht="76.5" spans="1:11">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1401,104 +1418,104 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="12">
+        <v>45981</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11">
-        <v>45981</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="51" spans="1:11">
+    </row>
+    <row r="3" ht="127.5" spans="1:11">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45977</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
-        <v>45975</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="I3" s="13">
+        <v>45977</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6">
-        <v>45977</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" ht="51" spans="1:11">
+    </row>
+    <row r="4" ht="76.5" spans="1:11">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>45975</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="6">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13">
         <v>45979</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="51.75" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="77.25" spans="1:11">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1508,78 +1525,56 @@
       <c r="C5" s="6">
         <v>45975</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="6">
+        <v>28</v>
+      </c>
+      <c r="I5" s="13">
         <v>45982</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="51.75" spans="1:11">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45975</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="6">
-        <v>45978</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
       <c r="A8" s="5"/>
@@ -1595,30 +1590,30 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="15.75" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="15.75" spans="1:11">
       <c r="A11" s="5"/>
@@ -1634,17 +1629,17 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" ht="15.75" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="15.75" spans="1:11">
       <c r="A13" s="5"/>
@@ -1660,17 +1655,17 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" ht="15.75" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="15.75" spans="1:11">
       <c r="A15" s="5"/>
@@ -1686,43 +1681,43 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" ht="15.75" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.75" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="15.75" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" ht="15.75" spans="1:11">
       <c r="A19" s="5"/>
@@ -1738,17 +1733,17 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" ht="15.75" spans="1:11">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1775,27 +1770,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Defect_Tracker Template_v0.1.xlsx
+++ b/Defect_Tracker Template_v0.1.xlsx
@@ -76,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Retrained the model on a debiased dataset.</t>
     </r>
     <r>
@@ -127,6 +133,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The Decision Tree Classifier model trained in US_004 yielded low accuracy (</t>
     </r>
     <r>
@@ -164,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Decision Tree model was discarded.</t>
     </r>
     <r>
@@ -189,6 +206,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Updated the Streamlit </t>
     </r>
     <r>
@@ -972,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -990,17 +1012,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1358,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5714285714286" defaultRowHeight="12.75"/>
@@ -1418,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>45976</v>
+        <v>45930</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -1435,13 +1451,13 @@
       <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12">
-        <v>45981</v>
+      <c r="I2" s="11">
+        <v>45931</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1453,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>45977</v>
+        <v>45935</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
@@ -1470,13 +1486,13 @@
       <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="13">
-        <v>45977</v>
+      <c r="I3" s="11">
+        <v>45935</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1488,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6">
-        <v>45975</v>
+        <v>45937</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -1496,7 +1512,7 @@
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1505,8 +1521,8 @@
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="13">
-        <v>45979</v>
+      <c r="I4" s="11">
+        <v>45938</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>16</v>
@@ -1523,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6">
-        <v>45975</v>
+        <v>45952</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>26</v>
@@ -1531,7 +1547,7 @@
       <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1540,41 +1556,41 @@
       <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="13">
-        <v>45982</v>
+      <c r="I5" s="11">
+        <v>45959</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:11">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
       <c r="E6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
       <c r="A8" s="5"/>
@@ -1590,30 +1606,30 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" ht="15.75" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" ht="15.75" spans="1:11">
       <c r="A11" s="5"/>
@@ -1629,17 +1645,17 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" ht="15.75" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="1:11">
       <c r="A13" s="5"/>
@@ -1655,17 +1671,17 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" ht="15.75" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" ht="15.75" spans="1:11">
       <c r="A15" s="5"/>
@@ -1681,43 +1697,43 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" ht="15.75" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15.75" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" ht="15.75" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15.75" spans="1:11">
       <c r="A19" s="5"/>
@@ -1733,17 +1749,17 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" ht="15.75" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
